--- a/medicine/Pharmacie/DO-ET/DO-ET.xlsx
+++ b/medicine/Pharmacie/DO-ET/DO-ET.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le DO-ET (2,5-diméthoxy-4-éthylamphétamine) est un hallucinogène psychédélique de la classe des amphétamines.
@@ -513,7 +525,9 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le DO-ET a des effets psychédéliques qui peuvent durer jusqu'à 20 heures. Dans son livre PiHKAL, Alexander Shulgin indique un dosage de  2–7 mg par voie orale, 6–7 mg étant la dose pour obtenir tous les effets.
 </t>
